--- a/results/exclude-fr.xlsx
+++ b/results/exclude-fr.xlsx
@@ -553,7 +553,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -568,13 +568,13 @@
         <v>128</v>
       </c>
       <c r="O2" t="n">
-        <v>0.784375</v>
+        <v>0.7527114967462039</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4836223506743738</v>
+        <v>0.6685934489402697</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.73413812222036</v>
+        <v>0.7144476586463911</v>
       </c>
     </row>
     <row r="3">
@@ -610,7 +610,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -625,13 +625,13 @@
         <v>128</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7342857142857143</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="P3" t="n">
-        <v>0.4951830443159923</v>
+        <v>0.5722543352601156</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7470618976429589</v>
+        <v>0.7333143981832227</v>
       </c>
     </row>
     <row r="4">
@@ -667,7 +667,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -682,13 +682,13 @@
         <v>128</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7028985507246377</v>
+        <v>0.7068273092369478</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7475915221579962</v>
+        <v>0.6782273603082851</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.72219643042041</v>
+        <v>0.725770607170469</v>
       </c>
     </row>
     <row r="5">
@@ -724,7 +724,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -739,13 +739,13 @@
         <v>128</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6996047430830039</v>
+        <v>0.7031578947368421</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6820809248554913</v>
+        <v>0.6435452793834296</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7289658790038103</v>
+        <v>0.7304320110416206</v>
       </c>
     </row>
     <row r="6">
@@ -781,7 +781,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -796,13 +796,13 @@
         <v>128</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7301587301587301</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="P6" t="n">
-        <v>0.6204238921001927</v>
+        <v>0.6473988439306358</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7262594152944982</v>
+        <v>0.7359047440282693</v>
       </c>
     </row>
     <row r="7">
@@ -838,7 +838,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -853,13 +853,13 @@
         <v>128</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7325</v>
+        <v>0.7520435967302452</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5645472061657033</v>
+        <v>0.5317919075144508</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7372269353742454</v>
+        <v>0.7333066358742124</v>
       </c>
     </row>
     <row r="8">
@@ -895,7 +895,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -910,13 +910,13 @@
         <v>128</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7350993377483444</v>
+        <v>0.7075664621676891</v>
       </c>
       <c r="P8" t="n">
-        <v>0.6416184971098265</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.7251955056138774</v>
+        <v>0.7300906473540433</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +952,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -967,13 +967,13 @@
         <v>128</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7666666666666667</v>
+        <v>0.7665615141955836</v>
       </c>
       <c r="P9" t="n">
-        <v>0.3988439306358382</v>
+        <v>0.4682080924855491</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.7560210529221888</v>
+        <v>0.7417576104855071</v>
       </c>
     </row>
     <row r="10">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1024,13 +1024,13 @@
         <v>128</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7552941176470588</v>
+        <v>0.7548076923076923</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6184971098265896</v>
+        <v>0.605009633911368</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.72058112786804</v>
+        <v>0.7211812421711821</v>
       </c>
     </row>
     <row r="11">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1081,13 +1081,13 @@
         <v>128</v>
       </c>
       <c r="O11" t="n">
-        <v>0.7247058823529412</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5934489402697495</v>
+        <v>0.418111753371869</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.735614362223288</v>
+        <v>0.7518296106001302</v>
       </c>
     </row>
     <row r="12">
@@ -1123,7 +1123,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1138,13 +1138,13 @@
         <v>128</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7520661157024794</v>
+        <v>0.7115009746588694</v>
       </c>
       <c r="P12" t="n">
-        <v>0.5260115606936416</v>
+        <v>0.7032755298651252</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.7328506849075863</v>
+        <v>0.7244015690302901</v>
       </c>
     </row>
     <row r="13">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1195,13 +1195,13 @@
         <v>128</v>
       </c>
       <c r="O13" t="n">
-        <v>0.751937984496124</v>
+        <v>0.7547770700636943</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5606936416184971</v>
+        <v>0.4566473988439306</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.7323065012240876</v>
+        <v>0.7470204914210934</v>
       </c>
     </row>
     <row r="14">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1252,13 +1252,13 @@
         <v>128</v>
       </c>
       <c r="O14" t="n">
-        <v>0.7211055276381909</v>
+        <v>0.696911196911197</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5529865125240848</v>
+        <v>0.6955684007707129</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.739512150044555</v>
+        <v>0.7327099089508718</v>
       </c>
     </row>
     <row r="15">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1309,13 +1309,13 @@
         <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>0.7403846153846154</v>
+        <v>0.7049891540130152</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5934489402697495</v>
+        <v>0.626204238921002</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.7261181928847721</v>
+        <v>0.7398923016163377</v>
       </c>
     </row>
     <row r="16">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1366,13 +1366,13 @@
         <v>128</v>
       </c>
       <c r="O16" t="n">
-        <v>0.7696629213483146</v>
+        <v>0.713216957605985</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5279383429672447</v>
+        <v>0.5510597302504817</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.7309923985257841</v>
+        <v>0.7374692048529999</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1423,13 +1423,13 @@
         <v>128</v>
       </c>
       <c r="O17" t="n">
-        <v>0.7251732101616628</v>
+        <v>0.7146739130434783</v>
       </c>
       <c r="P17" t="n">
-        <v>0.605009633911368</v>
+        <v>0.5067437379576107</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.7335326053573873</v>
+        <v>0.7436544305590383</v>
       </c>
     </row>
     <row r="18">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1480,13 +1480,13 @@
         <v>128</v>
       </c>
       <c r="O18" t="n">
-        <v>0.708803611738149</v>
+        <v>0.7321867321867321</v>
       </c>
       <c r="P18" t="n">
-        <v>0.605009633911368</v>
+        <v>0.5741811175337187</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7376102090140485</v>
+        <v>0.7351174527807505</v>
       </c>
     </row>
     <row r="19">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1537,13 +1537,13 @@
         <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6889400921658986</v>
+        <v>0.7455621301775148</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5761078998073218</v>
+        <v>0.4855491329479769</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.7466788299688807</v>
+        <v>0.7420049516601315</v>
       </c>
     </row>
     <row r="20">
@@ -1579,7 +1579,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1594,13 +1594,13 @@
         <v>128</v>
       </c>
       <c r="O20" t="n">
-        <v>0.7330508474576272</v>
+        <v>0.7149122807017544</v>
       </c>
       <c r="P20" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.628131021194605</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7165227044947494</v>
+        <v>0.7325637939177987</v>
       </c>
     </row>
     <row r="21">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1651,13 +1651,13 @@
         <v>128</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7459016393442623</v>
+        <v>0.7382352941176471</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5260115606936416</v>
+        <v>0.4836223506743738</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7384054703464218</v>
+        <v>0.746286535340638</v>
       </c>
     </row>
     <row r="22">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1708,13 +1708,13 @@
         <v>128</v>
       </c>
       <c r="O22" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7022132796780685</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5510597302504817</v>
+        <v>0.6724470134874759</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7357746504909821</v>
+        <v>0.7351919051881984</v>
       </c>
     </row>
     <row r="23">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1765,13 +1765,13 @@
         <v>128</v>
       </c>
       <c r="O23" t="n">
-        <v>0.7341040462427746</v>
+        <v>0.7067510548523207</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4894026974951831</v>
+        <v>0.6454720616570327</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7462794290706031</v>
+        <v>0.7344045686876954</v>
       </c>
     </row>
     <row r="24">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1822,13 +1822,13 @@
         <v>128</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7199017199017199</v>
+        <v>0.7404255319148936</v>
       </c>
       <c r="P24" t="n">
-        <v>0.5645472061657033</v>
+        <v>0.6705202312138728</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7420768158554772</v>
+        <v>0.7171840746594096</v>
       </c>
     </row>
     <row r="25">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -1879,13 +1879,13 @@
         <v>128</v>
       </c>
       <c r="O25" t="n">
-        <v>0.7246376811594203</v>
+        <v>0.7075268817204301</v>
       </c>
       <c r="P25" t="n">
-        <v>0.674373795761079</v>
+        <v>0.6339113680154143</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.7209782663757009</v>
+        <v>0.7349349944296731</v>
       </c>
     </row>
     <row r="26">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1936,13 +1936,13 @@
         <v>128</v>
       </c>
       <c r="O26" t="n">
-        <v>0.723342939481268</v>
+        <v>0.7082352941176471</v>
       </c>
       <c r="P26" t="n">
-        <v>0.4836223506743738</v>
+        <v>0.5799614643545279</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.7503276101420603</v>
+        <v>0.7388942461468909</v>
       </c>
     </row>
     <row r="27">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -1993,13 +1993,13 @@
         <v>128</v>
       </c>
       <c r="O27" t="n">
-        <v>0.7198177676537585</v>
+        <v>0.7108433734939759</v>
       </c>
       <c r="P27" t="n">
-        <v>0.6088631984585742</v>
+        <v>0.6820809248554913</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7343799756302493</v>
+        <v>0.7256078479605487</v>
       </c>
     </row>
     <row r="28">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2050,13 +2050,13 @@
         <v>128</v>
       </c>
       <c r="O28" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7214912280701754</v>
       </c>
       <c r="P28" t="n">
-        <v>0.7032755298651252</v>
+        <v>0.6339113680154143</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.7167659443267773</v>
+        <v>0.7276464797669533</v>
       </c>
     </row>
     <row r="29">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2107,13 +2107,13 @@
         <v>128</v>
       </c>
       <c r="O29" t="n">
-        <v>0.73568281938326</v>
+        <v>0.7805907172995781</v>
       </c>
       <c r="P29" t="n">
-        <v>0.6435452793834296</v>
+        <v>0.3564547206165704</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.723324503014248</v>
+        <v>0.7591889562679216</v>
       </c>
     </row>
     <row r="30">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2164,13 +2164,13 @@
         <v>128</v>
       </c>
       <c r="O30" t="n">
-        <v>0.7229437229437229</v>
+        <v>0.7148846960167715</v>
       </c>
       <c r="P30" t="n">
-        <v>0.6435452793834296</v>
+        <v>0.6570327552986512</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.7287715932035136</v>
+        <v>0.7290466223518139</v>
       </c>
     </row>
     <row r="31">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2221,13 +2221,13 @@
         <v>128</v>
       </c>
       <c r="O31" t="n">
-        <v>0.71875</v>
+        <v>0.6837294332723949</v>
       </c>
       <c r="P31" t="n">
-        <v>0.6204238921001927</v>
+        <v>0.720616570327553</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.7316192661345393</v>
+        <v>0.7340602909665305</v>
       </c>
     </row>
     <row r="32">
@@ -2263,7 +2263,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2278,13 +2278,13 @@
         <v>128</v>
       </c>
       <c r="O32" t="n">
-        <v>0.7197943444730077</v>
+        <v>0.7381546134663342</v>
       </c>
       <c r="P32" t="n">
-        <v>0.5394990366088632</v>
+        <v>0.5703275529865125</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.7399696093577883</v>
+        <v>0.7351886346903902</v>
       </c>
     </row>
     <row r="33">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -2335,13 +2335,13 @@
         <v>128</v>
       </c>
       <c r="O33" t="n">
-        <v>0.7641791044776119</v>
+        <v>0.7015873015873015</v>
       </c>
       <c r="P33" t="n">
-        <v>0.4932562620423892</v>
+        <v>0.4258188824662813</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.738966779827813</v>
+        <v>0.7645469675095118</v>
       </c>
     </row>
     <row r="34">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2392,13 +2392,13 @@
         <v>128</v>
       </c>
       <c r="O34" t="n">
-        <v>0.6822810590631364</v>
+        <v>0.7382075471698113</v>
       </c>
       <c r="P34" t="n">
-        <v>0.6454720616570327</v>
+        <v>0.603082851637765</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.7379099250874137</v>
+        <v>0.7299712279613519</v>
       </c>
     </row>
     <row r="35">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2449,13 +2449,13 @@
         <v>128</v>
       </c>
       <c r="O35" t="n">
-        <v>0.720703125</v>
+        <v>0.767379679144385</v>
       </c>
       <c r="P35" t="n">
-        <v>0.7109826589595376</v>
+        <v>0.5529865125240848</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.723366965182174</v>
+        <v>0.7296553357562895</v>
       </c>
     </row>
     <row r="36">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2506,13 +2506,13 @@
         <v>128</v>
       </c>
       <c r="O36" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.6871508379888268</v>
       </c>
       <c r="P36" t="n">
-        <v>0.5722543352601156</v>
+        <v>0.4739884393063584</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7399650412629846</v>
+        <v>0.756118768725116</v>
       </c>
     </row>
     <row r="37">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2563,13 +2563,13 @@
         <v>128</v>
       </c>
       <c r="O37" t="n">
-        <v>0.734982332155477</v>
+        <v>0.7247706422018348</v>
       </c>
       <c r="P37" t="n">
-        <v>0.4007707129094412</v>
+        <v>0.6088631984585742</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.7556467119628592</v>
+        <v>0.7288821276253061</v>
       </c>
     </row>
     <row r="38">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2620,13 +2620,13 @@
         <v>128</v>
       </c>
       <c r="O38" t="n">
-        <v>0.6996047430830039</v>
+        <v>0.6983805668016194</v>
       </c>
       <c r="P38" t="n">
-        <v>0.6820809248554913</v>
+        <v>0.6647398843930635</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.7358334637257127</v>
+        <v>0.7330329697457932</v>
       </c>
     </row>
     <row r="39">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2677,13 +2677,13 @@
         <v>128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7352297592997812</v>
       </c>
       <c r="P39" t="n">
-        <v>0.6011560693641619</v>
+        <v>0.6473988439306358</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.7359991950223348</v>
+        <v>0.723156203546131</v>
       </c>
     </row>
     <row r="40">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2734,13 +2734,13 @@
         <v>128</v>
       </c>
       <c r="O40" t="n">
-        <v>0.7250996015936255</v>
+        <v>0.7418655097613883</v>
       </c>
       <c r="P40" t="n">
-        <v>0.7013487475915221</v>
+        <v>0.6589595375722543</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7204661856763016</v>
+        <v>0.719291604780582</v>
       </c>
     </row>
     <row r="41">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -2791,13 +2791,13 @@
         <v>128</v>
       </c>
       <c r="O41" t="n">
-        <v>0.6993603411513859</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="P41" t="n">
-        <v>0.6319845857418112</v>
+        <v>0.7398843930635838</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.7361934803054545</v>
+        <v>0.7362332500501206</v>
       </c>
     </row>
     <row r="42">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -2848,13 +2848,13 @@
         <v>128</v>
       </c>
       <c r="O42" t="n">
-        <v>0.745398773006135</v>
+        <v>0.7173913043478261</v>
       </c>
       <c r="P42" t="n">
-        <v>0.4682080924855491</v>
+        <v>0.6994219653179191</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.7468582134443353</v>
+        <v>0.7186218974647191</v>
       </c>
     </row>
     <row r="43">
@@ -2890,7 +2890,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -2905,13 +2905,13 @@
         <v>128</v>
       </c>
       <c r="O43" t="n">
-        <v>0.7781155015197568</v>
+        <v>0.7535816618911175</v>
       </c>
       <c r="P43" t="n">
-        <v>0.4932562620423892</v>
+        <v>0.5067437379576107</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.7346717089479243</v>
+        <v>0.7398264457243383</v>
       </c>
     </row>
     <row r="44">
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -2962,13 +2962,13 @@
         <v>128</v>
       </c>
       <c r="O44" t="n">
-        <v>0.7389380530973452</v>
+        <v>0.7002012072434608</v>
       </c>
       <c r="P44" t="n">
-        <v>0.6435452793834296</v>
+        <v>0.6705202312138728</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.7179373129070968</v>
+        <v>0.7286886934861703</v>
       </c>
     </row>
     <row r="45">
@@ -3004,7 +3004,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3019,13 +3019,13 @@
         <v>128</v>
       </c>
       <c r="O45" t="n">
-        <v>0.7352112676056338</v>
+        <v>0.7628205128205128</v>
       </c>
       <c r="P45" t="n">
-        <v>0.5028901734104047</v>
+        <v>0.4585741811175337</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.7433238748355957</v>
+        <v>0.7402335989759697</v>
       </c>
     </row>
     <row r="46">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3076,13 +3076,13 @@
         <v>128</v>
       </c>
       <c r="O46" t="n">
-        <v>0.6988188976377953</v>
+        <v>0.6991341991341992</v>
       </c>
       <c r="P46" t="n">
-        <v>0.6840077071290944</v>
+        <v>0.6223506743737958</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.7329326511205148</v>
+        <v>0.7402689486677373</v>
       </c>
     </row>
     <row r="47">
@@ -3118,7 +3118,7 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -3133,13 +3133,13 @@
         <v>128</v>
       </c>
       <c r="O47" t="n">
-        <v>0.6998087954110899</v>
+        <v>0.6975806451612904</v>
       </c>
       <c r="P47" t="n">
-        <v>0.7052023121387283</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7289945253063955</v>
+        <v>0.733749592769689</v>
       </c>
     </row>
     <row r="48">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -3190,13 +3190,13 @@
         <v>128</v>
       </c>
       <c r="O48" t="n">
-        <v>0.7387640449438202</v>
+        <v>0.7589743589743589</v>
       </c>
       <c r="P48" t="n">
-        <v>0.5067437379576107</v>
+        <v>0.5703275529865125</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7408126972761175</v>
+        <v>0.7220159917746604</v>
       </c>
     </row>
     <row r="49">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3247,13 +3247,13 @@
         <v>128</v>
       </c>
       <c r="O49" t="n">
-        <v>0.7266514806378133</v>
+        <v>0.7041284403669725</v>
       </c>
       <c r="P49" t="n">
-        <v>0.6146435452793835</v>
+        <v>0.5915221579961464</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.7298602636362105</v>
+        <v>0.7390817221488456</v>
       </c>
     </row>
     <row r="50">
@@ -3289,7 +3289,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3304,13 +3304,13 @@
         <v>128</v>
       </c>
       <c r="O50" t="n">
-        <v>0.7222222222222222</v>
+        <v>0.7084233261339092</v>
       </c>
       <c r="P50" t="n">
-        <v>0.6011560693641619</v>
+        <v>0.6319845857418112</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.729550068523258</v>
+        <v>0.7304591511956006</v>
       </c>
     </row>
     <row r="51">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -3361,13 +3361,13 @@
         <v>128</v>
       </c>
       <c r="O51" t="n">
-        <v>0.7026086956521739</v>
+        <v>0.7151394422310757</v>
       </c>
       <c r="P51" t="n">
-        <v>0.7784200385356455</v>
+        <v>0.6917148362235067</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.7204040822910384</v>
+        <v>0.7247196922074688</v>
       </c>
     </row>
     <row r="52">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3418,13 +3418,13 @@
         <v>128</v>
       </c>
       <c r="O52" t="n">
-        <v>0.7306122448979592</v>
+        <v>0.7321814254859611</v>
       </c>
       <c r="P52" t="n">
-        <v>0.6897880539499036</v>
+        <v>0.653179190751445</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.7211432323797148</v>
+        <v>0.7243206016153679</v>
       </c>
     </row>
     <row r="53">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -3475,13 +3475,13 @@
         <v>128</v>
       </c>
       <c r="O53" t="n">
-        <v>0.7305122494432071</v>
+        <v>0.7170172084130019</v>
       </c>
       <c r="P53" t="n">
-        <v>0.6319845857418112</v>
+        <v>0.7225433526011561</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.7274419609740086</v>
+        <v>0.723535156431012</v>
       </c>
     </row>
     <row r="54">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -3532,13 +3532,13 @@
         <v>128</v>
       </c>
       <c r="O54" t="n">
-        <v>0.7130977130977131</v>
+        <v>0.7137176938369781</v>
       </c>
       <c r="P54" t="n">
-        <v>0.6608863198458574</v>
+        <v>0.6917148362235067</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7337391720418041</v>
+        <v>0.7220536165278801</v>
       </c>
     </row>
     <row r="55">
@@ -3574,7 +3574,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3589,13 +3589,13 @@
         <v>128</v>
       </c>
       <c r="O55" t="n">
-        <v>0.7160751565762005</v>
+        <v>0.7304147465437788</v>
       </c>
       <c r="P55" t="n">
-        <v>0.6608863198458574</v>
+        <v>0.6107899807321773</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.7275335086659082</v>
+        <v>0.7280606914497508</v>
       </c>
     </row>
     <row r="56">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -3646,13 +3646,13 @@
         <v>128</v>
       </c>
       <c r="O56" t="n">
-        <v>0.7204081632653061</v>
+        <v>0.7226107226107226</v>
       </c>
       <c r="P56" t="n">
-        <v>0.6801541425818882</v>
+        <v>0.5973025048169557</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.7233285238065327</v>
+        <v>0.736158759630166</v>
       </c>
     </row>
     <row r="57">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -3703,13 +3703,13 @@
         <v>128</v>
       </c>
       <c r="O57" t="n">
-        <v>0.7006651884700665</v>
+        <v>0.6948051948051948</v>
       </c>
       <c r="P57" t="n">
-        <v>0.6088631984585742</v>
+        <v>0.6184971098265896</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.7405415239406511</v>
+        <v>0.7387991217884221</v>
       </c>
     </row>
     <row r="58">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -3760,13 +3760,13 @@
         <v>128</v>
       </c>
       <c r="O58" t="n">
-        <v>0.7326968973747017</v>
+        <v>0.7180043383947939</v>
       </c>
       <c r="P58" t="n">
-        <v>0.5915221579961464</v>
+        <v>0.6377649325626205</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.734412796585265</v>
+        <v>0.7284802044549888</v>
       </c>
     </row>
     <row r="59">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
@@ -3817,13 +3817,13 @@
         <v>128</v>
       </c>
       <c r="O59" t="n">
-        <v>0.7345844504021448</v>
+        <v>0.7071240105540897</v>
       </c>
       <c r="P59" t="n">
-        <v>0.5279383429672447</v>
+        <v>0.5163776493256262</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.7404135836696418</v>
+        <v>0.7504563610879563</v>
       </c>
     </row>
     <row r="60">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -3874,13 +3874,13 @@
         <v>128</v>
       </c>
       <c r="O60" t="n">
-        <v>0.6974169741697417</v>
+        <v>0.7417061611374408</v>
       </c>
       <c r="P60" t="n">
-        <v>0.7283236994219653</v>
+        <v>0.603082851637765</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.7288441228763142</v>
+        <v>0.728552984053556</v>
       </c>
     </row>
     <row r="61">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -3931,13 +3931,13 @@
         <v>128</v>
       </c>
       <c r="O61" t="n">
-        <v>0.7379134860050891</v>
+        <v>0.8106995884773662</v>
       </c>
       <c r="P61" t="n">
-        <v>0.558766859344894</v>
+        <v>0.3795761078998073</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.7376627496680055</v>
+        <v>0.7517121418696422</v>
       </c>
     </row>
     <row r="62">
@@ -3973,7 +3973,7 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -3988,13 +3988,13 @@
         <v>128</v>
       </c>
       <c r="O62" t="n">
-        <v>0.7734627831715211</v>
+        <v>0.7231920199501247</v>
       </c>
       <c r="P62" t="n">
-        <v>0.4605009633911368</v>
+        <v>0.558766859344894</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.7406089314928282</v>
+        <v>0.7368968048995591</v>
       </c>
     </row>
     <row r="63">
@@ -4030,7 +4030,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4045,13 +4045,13 @@
         <v>128</v>
       </c>
       <c r="O63" t="n">
-        <v>0.7386018237082067</v>
+        <v>0.7694524495677233</v>
       </c>
       <c r="P63" t="n">
-        <v>0.4682080924855491</v>
+        <v>0.5144508670520231</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.74644616278547</v>
+        <v>0.7307254024286333</v>
       </c>
     </row>
     <row r="64">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4102,13 +4102,13 @@
         <v>128</v>
       </c>
       <c r="O64" t="n">
-        <v>0.710239651416122</v>
+        <v>0.7242888402625821</v>
       </c>
       <c r="P64" t="n">
-        <v>0.628131021194605</v>
+        <v>0.6377649325626205</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.7359573687234825</v>
+        <v>0.7307920139161729</v>
       </c>
     </row>
     <row r="65">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -4159,13 +4159,13 @@
         <v>128</v>
       </c>
       <c r="O65" t="n">
-        <v>0.7485380116959064</v>
+        <v>0.701688555347092</v>
       </c>
       <c r="P65" t="n">
-        <v>0.4932562620423892</v>
+        <v>0.720616570327553</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.7417151595661801</v>
+        <v>0.7265541721579827</v>
       </c>
     </row>
     <row r="66">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -4216,13 +4216,13 @@
         <v>128</v>
       </c>
       <c r="O66" t="n">
-        <v>0.7100591715976331</v>
+        <v>0.7060133630289532</v>
       </c>
       <c r="P66" t="n">
-        <v>0.6936416184971098</v>
+        <v>0.6107899807321773</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.7267505768322893</v>
+        <v>0.7446562457756986</v>
       </c>
     </row>
     <row r="67">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4273,13 +4273,13 @@
         <v>128</v>
       </c>
       <c r="O67" t="n">
-        <v>0.7151515151515152</v>
+        <v>0.6969072164948453</v>
       </c>
       <c r="P67" t="n">
-        <v>0.6820809248554913</v>
+        <v>0.651252408477842</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.7261203783453157</v>
+        <v>0.7375567061523554</v>
       </c>
     </row>
     <row r="68">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4330,13 +4330,13 @@
         <v>128</v>
       </c>
       <c r="O68" t="n">
-        <v>0.7304526748971193</v>
+        <v>0.7701492537313432</v>
       </c>
       <c r="P68" t="n">
-        <v>0.6840077071290944</v>
+        <v>0.4971098265895953</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.7193404865368328</v>
+        <v>0.7289165346327676</v>
       </c>
     </row>
     <row r="69">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4387,13 +4387,13 @@
         <v>128</v>
       </c>
       <c r="O69" t="n">
-        <v>0.7444444444444445</v>
+        <v>0.748730964467005</v>
       </c>
       <c r="P69" t="n">
-        <v>0.6454720616570327</v>
+        <v>0.5684007707129094</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.7190574836834392</v>
+        <v>0.7291219261618344</v>
       </c>
     </row>
     <row r="70">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -4444,13 +4444,13 @@
         <v>128</v>
       </c>
       <c r="O70" t="n">
-        <v>0.7051792828685259</v>
+        <v>0.7425474254742548</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6820809248554913</v>
+        <v>0.5279383429672447</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.7257093651434346</v>
+        <v>0.744008178566128</v>
       </c>
     </row>
     <row r="71">
@@ -4486,7 +4486,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -4501,13 +4501,13 @@
         <v>128</v>
       </c>
       <c r="O71" t="n">
-        <v>0.693359375</v>
+        <v>0.7302798982188295</v>
       </c>
       <c r="P71" t="n">
-        <v>0.6840077071290944</v>
+        <v>0.5529865125240848</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.7352864351810448</v>
+        <v>0.7382260895861462</v>
       </c>
     </row>
     <row r="72">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -4558,13 +4558,13 @@
         <v>128</v>
       </c>
       <c r="O72" t="n">
-        <v>0.7213114754098361</v>
+        <v>0.7218934911242604</v>
       </c>
       <c r="P72" t="n">
-        <v>0.5934489402697495</v>
+        <v>0.7052023121387283</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.7371979673875904</v>
+        <v>0.7158827031770653</v>
       </c>
     </row>
     <row r="73">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4615,13 +4615,13 @@
         <v>128</v>
       </c>
       <c r="O73" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7336956521739131</v>
       </c>
       <c r="P73" t="n">
-        <v>0.626204238921002</v>
+        <v>0.5202312138728323</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.7349029316560823</v>
+        <v>0.741700969652602</v>
       </c>
     </row>
     <row r="74">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -4672,13 +4672,13 @@
         <v>128</v>
       </c>
       <c r="O74" t="n">
-        <v>0.7092050209205021</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="P74" t="n">
-        <v>0.653179190751445</v>
+        <v>0.5934489402697495</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.7324201243559865</v>
+        <v>0.7383406896653247</v>
       </c>
     </row>
     <row r="75">
@@ -4714,7 +4714,7 @@
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -4729,13 +4729,13 @@
         <v>128</v>
       </c>
       <c r="O75" t="n">
-        <v>0.6961538461538461</v>
+        <v>0.7279596977329975</v>
       </c>
       <c r="P75" t="n">
-        <v>0.697495183044316</v>
+        <v>0.5568400770712909</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.7312024044369927</v>
+        <v>0.7334136143165142</v>
       </c>
     </row>
     <row r="76">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
@@ -4786,13 +4786,13 @@
         <v>128</v>
       </c>
       <c r="O76" t="n">
-        <v>0.7099391480730223</v>
+        <v>0.7188940092165899</v>
       </c>
       <c r="P76" t="n">
-        <v>0.674373795761079</v>
+        <v>0.6011560693641619</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.7276685994255827</v>
+        <v>0.7315911133480693</v>
       </c>
     </row>
     <row r="77">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -4843,13 +4843,13 @@
         <v>128</v>
       </c>
       <c r="O77" t="n">
-        <v>0.7465564738292011</v>
+        <v>0.7240566037735849</v>
       </c>
       <c r="P77" t="n">
-        <v>0.5221579961464354</v>
+        <v>0.5915221579961464</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.7359814005146317</v>
+        <v>0.7324084692559893</v>
       </c>
     </row>
     <row r="78">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -4900,13 +4900,13 @@
         <v>128</v>
       </c>
       <c r="O78" t="n">
-        <v>0.7223300970873786</v>
+        <v>0.7403846153846154</v>
       </c>
       <c r="P78" t="n">
-        <v>0.7167630057803468</v>
+        <v>0.5934489402697495</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.7200867218205831</v>
+        <v>0.7260219927982239</v>
       </c>
     </row>
     <row r="79">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
@@ -4957,13 +4957,13 @@
         <v>128</v>
       </c>
       <c r="O79" t="n">
-        <v>0.7104247104247104</v>
+        <v>0.7286063569682152</v>
       </c>
       <c r="P79" t="n">
-        <v>0.7090558766859345</v>
+        <v>0.5741811175337187</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.7247261212342732</v>
+        <v>0.7333763104715989</v>
       </c>
     </row>
     <row r="80">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
@@ -5014,13 +5014,13 @@
         <v>128</v>
       </c>
       <c r="O80" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.7129186602870813</v>
       </c>
       <c r="P80" t="n">
-        <v>0.5934489402697495</v>
+        <v>0.5741811175337187</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.7276926416895654</v>
+        <v>0.7393267918822564</v>
       </c>
     </row>
     <row r="81">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5071,13 +5071,13 @@
         <v>128</v>
       </c>
       <c r="O81" t="n">
-        <v>0.7695473251028807</v>
+        <v>0.743455497382199</v>
       </c>
       <c r="P81" t="n">
-        <v>0.3603082851637765</v>
+        <v>0.5472061657032755</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.7597079291260941</v>
+        <v>0.7368371308237767</v>
       </c>
     </row>
     <row r="82">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
@@ -5128,13 +5128,13 @@
         <v>128</v>
       </c>
       <c r="O82" t="n">
-        <v>0.7431192660550459</v>
+        <v>0.7180851063829787</v>
       </c>
       <c r="P82" t="n">
-        <v>0.4682080924855491</v>
+        <v>0.5202312138728323</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.743127271048159</v>
+        <v>0.7407311753181988</v>
       </c>
     </row>
     <row r="83">
@@ -5170,7 +5170,7 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -5185,13 +5185,13 @@
         <v>128</v>
       </c>
       <c r="O83" t="n">
-        <v>0.7597765363128491</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="P83" t="n">
-        <v>0.5240847784200385</v>
+        <v>0.5472061657032755</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.733315486840726</v>
+        <v>0.7309424476354603</v>
       </c>
     </row>
     <row r="84">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -5242,13 +5242,13 @@
         <v>128</v>
       </c>
       <c r="O84" t="n">
-        <v>0.7280163599182005</v>
+        <v>0.6853281853281853</v>
       </c>
       <c r="P84" t="n">
-        <v>0.6859344894026975</v>
+        <v>0.6840077071290944</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.7203073064572382</v>
+        <v>0.7348010128852861</v>
       </c>
     </row>
     <row r="85">
@@ -5284,7 +5284,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -5299,13 +5299,13 @@
         <v>128</v>
       </c>
       <c r="O85" t="n">
-        <v>0.7018779342723005</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="P85" t="n">
-        <v>0.5761078998073218</v>
+        <v>0.6319845857418112</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.7402828992576764</v>
+        <v>0.7367726364001276</v>
       </c>
     </row>
     <row r="86">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -5356,13 +5356,13 @@
         <v>128</v>
       </c>
       <c r="O86" t="n">
-        <v>0.6709677419354839</v>
+        <v>0.7173396674584323</v>
       </c>
       <c r="P86" t="n">
-        <v>0.8015414258188824</v>
+        <v>0.581888246628131</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.7330850067986842</v>
+        <v>0.7327034331195525</v>
       </c>
     </row>
     <row r="87">
@@ -5398,7 +5398,7 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
@@ -5413,13 +5413,13 @@
         <v>128</v>
       </c>
       <c r="O87" t="n">
-        <v>0.7207792207792207</v>
+        <v>0.7268993839835729</v>
       </c>
       <c r="P87" t="n">
-        <v>0.6416184971098265</v>
+        <v>0.6820809248554913</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.7268442925300101</v>
+        <v>0.7218470000651809</v>
       </c>
     </row>
     <row r="88">
@@ -5455,7 +5455,7 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
@@ -5470,13 +5470,13 @@
         <v>128</v>
       </c>
       <c r="O88" t="n">
-        <v>0.7190569744597249</v>
+        <v>0.7068273092369478</v>
       </c>
       <c r="P88" t="n">
-        <v>0.7052023121387283</v>
+        <v>0.6782273603082851</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.7230429966123916</v>
+        <v>0.7342731394116119</v>
       </c>
     </row>
     <row r="89">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -5527,13 +5527,13 @@
         <v>128</v>
       </c>
       <c r="O89" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7348314606741573</v>
       </c>
       <c r="P89" t="n">
-        <v>0.4046242774566474</v>
+        <v>0.6300578034682081</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.7459397118158816</v>
+        <v>0.7216223572702056</v>
       </c>
     </row>
     <row r="90">
@@ -5569,7 +5569,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L90" t="inlineStr">
@@ -5584,13 +5584,13 @@
         <v>128</v>
       </c>
       <c r="O90" t="n">
-        <v>0.7437325905292479</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="P90" t="n">
-        <v>0.5144508670520231</v>
+        <v>0.5491329479768786</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.7390593238611284</v>
+        <v>0.7395214072535715</v>
       </c>
     </row>
     <row r="91">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
@@ -5641,13 +5641,13 @@
         <v>128</v>
       </c>
       <c r="O91" t="n">
-        <v>0.7569444444444444</v>
+        <v>0.7087576374745418</v>
       </c>
       <c r="P91" t="n">
-        <v>0.4200385356454721</v>
+        <v>0.6705202312138728</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.7497571499901066</v>
+        <v>0.7292829519238752</v>
       </c>
     </row>
     <row r="92">
@@ -5683,7 +5683,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
@@ -5698,13 +5698,13 @@
         <v>128</v>
       </c>
       <c r="O92" t="n">
-        <v>0.6964618249534451</v>
+        <v>0.7635327635327636</v>
       </c>
       <c r="P92" t="n">
-        <v>0.720616570327553</v>
+        <v>0.5163776493256262</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.7274979920552764</v>
+        <v>0.7343265132376532</v>
       </c>
     </row>
     <row r="93">
@@ -5740,7 +5740,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5755,13 +5755,13 @@
         <v>128</v>
       </c>
       <c r="O93" t="n">
-        <v>0.7371794871794872</v>
+        <v>0.7290748898678414</v>
       </c>
       <c r="P93" t="n">
-        <v>0.443159922928709</v>
+        <v>0.6377649325626205</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.7543079966836793</v>
+        <v>0.7277360702026433</v>
       </c>
     </row>
     <row r="94">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
@@ -5812,13 +5812,13 @@
         <v>128</v>
       </c>
       <c r="O94" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7163814180929096</v>
       </c>
       <c r="P94" t="n">
-        <v>0.5895953757225434</v>
+        <v>0.5645472061657033</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.7399310589871024</v>
+        <v>0.7421612113778865</v>
       </c>
     </row>
     <row r="95">
@@ -5854,7 +5854,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
@@ -5869,13 +5869,13 @@
         <v>128</v>
       </c>
       <c r="O95" t="n">
-        <v>0.7413793103448276</v>
+        <v>0.735632183908046</v>
       </c>
       <c r="P95" t="n">
-        <v>0.4142581888246628</v>
+        <v>0.6165703275529865</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.7560022900006259</v>
+        <v>0.726148034641903</v>
       </c>
     </row>
     <row r="96">
@@ -5911,7 +5911,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -5926,13 +5926,13 @@
         <v>128</v>
       </c>
       <c r="O96" t="n">
-        <v>0.7177615571776156</v>
+        <v>0.7183770883054893</v>
       </c>
       <c r="P96" t="n">
-        <v>0.5684007707129094</v>
+        <v>0.5799614643545279</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.7382803445524352</v>
+        <v>0.7379057512107485</v>
       </c>
     </row>
     <row r="97">
@@ -5968,7 +5968,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -5983,13 +5983,13 @@
         <v>128</v>
       </c>
       <c r="O97" t="n">
-        <v>0.7124183006535948</v>
+        <v>0.7471910112359551</v>
       </c>
       <c r="P97" t="n">
-        <v>0.6300578034682081</v>
+        <v>0.51252408477842</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.7318124478913181</v>
+        <v>0.7365305894367606</v>
       </c>
     </row>
     <row r="98">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -6040,13 +6040,13 @@
         <v>128</v>
       </c>
       <c r="O98" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.6932270916334662</v>
       </c>
       <c r="P98" t="n">
-        <v>0.4470134874759152</v>
+        <v>0.6705202312138728</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.7469888536376705</v>
+        <v>0.7354383596629227</v>
       </c>
     </row>
     <row r="99">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
@@ -6097,13 +6097,13 @@
         <v>128</v>
       </c>
       <c r="O99" t="n">
-        <v>0.7132867132867133</v>
+        <v>0.734375</v>
       </c>
       <c r="P99" t="n">
-        <v>0.5895953757225434</v>
+        <v>0.6339113680154143</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.7376428564561939</v>
+        <v>0.7248990480139561</v>
       </c>
     </row>
     <row r="100">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6154,13 +6154,13 @@
         <v>128</v>
       </c>
       <c r="O100" t="n">
-        <v>0.7060931899641577</v>
+        <v>0.7263157894736842</v>
       </c>
       <c r="P100" t="n">
-        <v>0.7591522157996147</v>
+        <v>0.6647398843930635</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.7206697467868085</v>
+        <v>0.7212425338472048</v>
       </c>
     </row>
     <row r="101">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>GSMaP</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
@@ -6211,13 +6211,13 @@
         <v>128</v>
       </c>
       <c r="O101" t="n">
-        <v>0.705989110707804</v>
+        <v>0.7239263803680982</v>
       </c>
       <c r="P101" t="n">
-        <v>0.7495183044315993</v>
+        <v>0.6820809248554913</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.719665687151431</v>
+        <v>0.7228783420782027</v>
       </c>
     </row>
   </sheetData>
